--- a/data/VEGA_QSAR_modeli/TU_average_rank tablica.xlsx
+++ b/data/VEGA_QSAR_modeli/TU_average_rank tablica.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zagreb (Savski Kamenji - toplana)</t>
+          <t>Zagreb</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>centar Karlovca</t>
+          <t>Karlovac</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Petrinja (kupalište)</t>
+          <t>Petrinja</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Metković-most</t>
+          <t>most</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kuželj-Gorski kotar</t>
+          <t>Kuželj</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad)</t>
+          <t>Sisak</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sisak (Stari grad)</t>
+          <t>Sisak</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Iševnica- Gorski kotar</t>
+          <t>Brod na Kupi</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Metković-Unka</t>
+          <t>Unka</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Metković-Doljani</t>
+          <t>Doljani</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Karlovac-Foginovo kupalište</t>
+          <t>Karlovac</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Severin na Kupi-kupalište Klanac</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Duga Resa-gradsko kupalište</t>
+          <t>Duga Resa</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ozalj-gradsko kupalište</t>
+          <t>Ozalj</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -743,7 +743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jurovo - Jurovski Brod (utok Lahinje - lijevi pritok)</t>
+          <t>Jurovo</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,12 +753,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plitvička jezera </t>
+          <t>Plitvice</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prošćansko jezero</t>
+          <t>Prošćansko</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -773,7 +773,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ozalj</t>
+          <t>HE</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zagrebačka županija</t>
+          <t>ZG županija</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Belavići-kamp Slapić</t>
+          <t>Slapić</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -863,7 +863,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Slunj-kupalište Rastoke</t>
+          <t>Slunj</t>
         </is>
       </c>
       <c r="C29" t="n">
